--- a/資料表.xlsx
+++ b/資料表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="67">
   <si>
     <t>name</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>price</t>
-  </si>
-  <si>
-    <t>qty</t>
   </si>
   <si>
     <t>picture</t>
@@ -364,6 +361,14 @@
   </si>
   <si>
     <t>DB:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_qty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_qty</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,6 +552,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -555,15 +569,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -847,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -864,27 +869,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>64</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="12"/>
+      <c r="B3" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -921,9 +926,9 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -941,7 +946,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -951,13 +956,13 @@
       <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="6"/>
@@ -974,13 +979,13 @@
       <c r="B7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="9"/>
@@ -996,13 +1001,13 @@
       <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="9"/>
@@ -1018,13 +1023,13 @@
       <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="6"/>
@@ -1038,17 +1043,17 @@
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="12"/>
+      <c r="B11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
@@ -1085,13 +1090,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>31</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>13</v>
@@ -1105,7 +1110,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1115,13 +1120,13 @@
       <c r="B14" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>32</v>
+      <c r="C14" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="6"/>
@@ -1136,13 +1141,13 @@
       <c r="B15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>33</v>
+      <c r="C15" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="9"/>
@@ -1158,8 +1163,8 @@
       <c r="B16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>34</v>
+      <c r="C16" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>12</v>
@@ -1178,13 +1183,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>35</v>
+        <v>65</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>13</v>
@@ -1200,15 +1205,15 @@
         <v>6</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F18" s="6"/>
@@ -1220,17 +1225,17 @@
     <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="12"/>
+      <c r="B20" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="15"/>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
@@ -1267,13 +1272,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>13</v>
@@ -1287,7 +1292,7 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1295,15 +1300,15 @@
         <v>2</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F23" s="6"/>
@@ -1318,15 +1323,15 @@
         <v>3</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F24" s="9"/>
@@ -1342,15 +1347,15 @@
         <v>4</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>35</v>
+        <v>66</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F25" s="9"/>
@@ -1364,15 +1369,15 @@
         <v>5</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F26" s="9"/>
@@ -1384,17 +1389,17 @@
     <row r="27" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
-      <c r="B28" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="12"/>
+      <c r="B28" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="15"/>
     </row>
     <row r="29" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
@@ -1431,13 +1436,13 @@
         <v>1</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>13</v>
@@ -1451,7 +1456,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1459,13 +1464,13 @@
         <v>2</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>13</v>
@@ -1482,13 +1487,13 @@
         <v>3</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>13</v>
@@ -1506,13 +1511,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>35</v>
+        <v>47</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>13</v>
@@ -1528,10 +1533,10 @@
         <v>5</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>12</v>
@@ -1550,15 +1555,15 @@
         <v>6</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>61</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F35" s="9"/>
@@ -1576,5 +1581,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>